--- a/CourseCardSystem/Group/CourseCardGroupConfig.xlsx
+++ b/CourseCardSystem/Group/CourseCardGroupConfig.xlsx
@@ -32,11 +32,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -49,6 +50,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -150,9 +156,12 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -369,7 +378,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
@@ -525,31 +534,33 @@
       <c r="C4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="9">
         <v>1.0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <v>2.0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>3.0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>4.0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>5.0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>6.0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <v>7.0</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>8.0</v>
       </c>
-      <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -562,19 +573,19 @@
       <c r="V4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CourseCardSystem/Group/CourseCardGroupConfig.xlsx
+++ b/CourseCardSystem/Group/CourseCardGroupConfig.xlsx
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="11">
-        <v>0.0</v>
+        <v>9.99999999E8</v>
       </c>
       <c r="E4" s="9">
         <v>1.0</v>

--- a/CourseCardSystem/Group/CourseCardGroupConfig.xlsx
+++ b/CourseCardSystem/Group/CourseCardGroupConfig.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>course_cards</t>
   </si>
@@ -25,7 +26,19 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>stage1</t>
+    <t>color</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>legend</t>
   </si>
 </sst>
 </file>
@@ -135,6 +148,9 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -160,9 +176,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -173,6 +186,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -390,61 +407,62 @@
       <c r="C1" s="1">
         <v>3.0</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
         <v>4.0</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>5.0</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>6.0</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>7.0</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>8.0</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>9.0</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>10.0</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>11.0</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>12.0</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>13.0</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>14.0</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>15.0</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>16.0</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>17.0</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>18.0</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>19.0</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>20.0</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>21.0</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>22.0</v>
       </c>
     </row>
@@ -452,145 +470,243 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
         <v>1.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="9">
         <v>2.0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="9">
         <v>3.0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="9">
         <v>4.0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="9">
         <v>5.0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="9">
         <v>6.0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="9">
         <v>7.0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="9">
         <v>8.0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="9">
         <v>9.0</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="9">
         <v>10.0</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>99.0</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="b">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="12">
         <v>9.99999999E8</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="10">
         <v>1.0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="10">
         <v>2.0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="10">
         <v>3.0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="11">
         <v>4.0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="10">
         <v>5.0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="10">
         <v>6.0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="10">
         <v>7.0</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="11">
         <v>8.0</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="A5" s="10">
+        <v>98.0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10">
+        <v>97.0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10">
+        <v>96.0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CourseCardSystem/Group/CourseCardGroupConfig.xlsx
+++ b/CourseCardSystem/Group/CourseCardGroupConfig.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>course_cards</t>
   </si>
@@ -26,19 +26,31 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
-    <t>rare</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>legend</t>
+    <t>card_1</t>
+  </si>
+  <si>
+    <t>card_2</t>
+  </si>
+  <si>
+    <t>card_3</t>
+  </si>
+  <si>
+    <t>card_4</t>
+  </si>
+  <si>
+    <t>card_5</t>
+  </si>
+  <si>
+    <t>card_6</t>
+  </si>
+  <si>
+    <t>card_7</t>
+  </si>
+  <si>
+    <t>card_8</t>
   </si>
 </sst>
 </file>
@@ -504,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="9">
         <v>1.0</v>
@@ -551,7 +563,7 @@
         <v>99.0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="11" t="b">
         <v>1</v>
@@ -599,26 +611,24 @@
     </row>
     <row r="5">
       <c r="A5" s="10">
-        <v>98.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="12">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="12">
         <v>9.99999999E8</v>
       </c>
       <c r="F5" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>8.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10"/>
@@ -629,32 +639,26 @@
     </row>
     <row r="6">
       <c r="A6" s="10">
-        <v>97.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="12">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="12">
         <v>9.99999999E8</v>
       </c>
       <c r="F6" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>7.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -662,32 +666,130 @@
     </row>
     <row r="7">
       <c r="A7" s="10">
-        <v>96.0</v>
+        <v>3.0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="12">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" s="12">
         <v>9.99999999E8</v>
       </c>
       <c r="F7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="F10" s="10">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="F11" s="10">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="F12" s="10">
+        <v>8.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
